--- a/Project_python/out/Top2vec/test_top2vec_abstracts0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_abstracts0.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.198|x2: 0.000|x3: 0.413|x4: 0.000|x5: 0.122|x6: 0.129|x7: 0.112|x8: 0.099|x9: 0.217|x10: 0.059|x11: 0.208|x12: 0.159|x13: 0.000|x14: 0.208|x15: 0.000|x16: 0.110|x17: 0.000</t>
+          <t>x1: 0.198|x2: 0.000|x3: 0.413|x4: 0.000|x5: 0.122|x6: 0.129|x7: 0.112|x8: 0.098|x9: 0.217|x10: 0.059|x11: 0.208|x12: 0.159|x13: 0.000|x14: 0.208|x15: 0.000|x16: 0.110|x17: 0.000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.140|x2: 0.135|x3: 0.331|x4: 0.147|x5: 0.000|x6: 0.000|x7: 0.082|x8: 0.146|x9: 0.097|x10: 0.298|x11: 0.054|x12: 0.000|x13: 0.080|x14: 0.101|x15: 0.128|x16: 0.117|x17: 0.000</t>
+          <t>x1: 0.140|x2: 0.135|x3: 0.331|x4: 0.147|x5: 0.000|x6: 0.000|x7: 0.082|x8: 0.146|x9: 0.097|x10: 0.298|x11: 0.053|x12: 0.000|x13: 0.080|x14: 0.101|x15: 0.128|x16: 0.117|x17: 0.000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.2370262270430881]</t>
+          <t>[0.23702266955383222]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -737,7 +737,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.155|x2: 0.168|x3: 0.315|x4: 0.138|x5: 0.106|x6: 0.000|x7: 0.083|x8: 0.196|x9: 0.182|x10: 0.000|x11: 0.000|x12: 0.249|x13: 0.108|x14: 0.152|x15: 0.179|x16: 0.112|x17: 0.000</t>
+          <t>x1: 0.155|x2: 0.169|x3: 0.316|x4: 0.138|x5: 0.106|x6: 0.000|x7: 0.083|x8: 0.196|x9: 0.182|x10: 0.000|x11: 0.000|x12: 0.249|x13: 0.108|x14: 0.152|x15: 0.179|x16: 0.112|x17: 0.000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.060|x3: 0.288|x4: 0.068|x5: 0.000|x6: 0.068|x7: 0.052|x8: 0.000|x9: 0.090|x10: 0.055|x11: 0.000|x12: 0.119|x13: 0.155|x14: 0.087|x15: 0.074|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.060|x3: 0.288|x4: 0.068|x5: 0.000|x6: 0.068|x7: 0.052|x8: 0.000|x9: 0.090|x10: 0.055|x11: 0.000|x12: 0.120|x13: 0.155|x14: 0.087|x15: 0.074|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.21761777573408814]</t>
+          <t>[0.21754791218474814]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -998,7 +998,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.23228432819275213]</t>
+          <t>[0.23223249536802004]</t>
         </is>
       </c>
       <c r="H14" t="b">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.604|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.164|x8: 0.153|x9: 0.210|x10: 0.194|x11: 0.068|x12: 0.251|x13: 0.095|x14: 0.000|x15: 0.096|x16: 0.061|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.604|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.164|x8: 0.153|x9: 0.210|x10: 0.194|x11: 0.068|x12: 0.251|x13: 0.095|x14: 0.000|x15: 0.097|x16: 0.061|x17: 0.000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.2874451602658529]</t>
+          <t>[0.2874581149251249]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.000|x3: 0.354|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.046|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.074|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.000|x3: 0.354|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.046|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.2210329630400974]</t>
+          <t>[0.221031421262724]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.2857262103087446]</t>
+          <t>[0.28572372732209117]</t>
         </is>
       </c>
       <c r="H17" t="b">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.340|x4: 0.103|x5: 0.000|x6: 0.090|x7: 0.000|x8: 0.000|x9: 0.093|x10: 0.153|x11: 0.000|x12: 0.066|x13: 0.154|x14: 0.079|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.339|x4: 0.103|x5: 0.000|x6: 0.090|x7: 0.000|x8: 0.000|x9: 0.093|x10: 0.153|x11: 0.000|x12: 0.066|x13: 0.154|x14: 0.079|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.2398103633396464]</t>
+          <t>[0.23977642144605407]</t>
         </is>
       </c>
       <c r="H20" t="b">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.357|x4: 0.105|x5: 0.049|x6: 0.000|x7: 0.050|x8: 0.105|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.146|x14: 0.000|x15: 0.053|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.357|x4: 0.106|x5: 0.049|x6: 0.000|x7: 0.050|x8: 0.105|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.146|x14: 0.000|x15: 0.053|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.139|x2: 0.000|x3: 0.354|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.044|x12: 0.089|x13: 0.138|x14: 0.068|x15: 0.093|x16: 0.070|x17: 0.000</t>
+          <t>x1: 0.140|x2: 0.000|x3: 0.354|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.044|x12: 0.089|x13: 0.138|x14: 0.068|x15: 0.093|x16: 0.070|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.21789799870231938]</t>
+          <t>[0.2179408568818543]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.25693551655720703]</t>
+          <t>[0.2569338054684996]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.288|x4: 0.000|x5: 0.000|x6: 0.124|x7: 0.081|x8: 0.158|x9: 0.065|x10: 0.125|x11: 0.055|x12: 0.152|x13: 0.000|x14: 0.076|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.289|x4: 0.000|x5: 0.000|x6: 0.124|x7: 0.081|x8: 0.158|x9: 0.065|x10: 0.125|x11: 0.055|x12: 0.152|x13: 0.000|x14: 0.076|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.078|x2: 0.000|x3: 0.186|x4: 0.000|x5: 0.056|x6: 0.000|x7: 0.108|x8: 0.056|x9: 0.109|x10: 0.000|x11: 0.000|x12: 0.144|x13: 0.126|x14: 0.000|x15: 0.000|x16: 0.066|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.000|x3: 0.186|x4: 0.000|x5: 0.057|x6: 0.000|x7: 0.108|x8: 0.057|x9: 0.109|x10: 0.000|x11: 0.000|x12: 0.144|x13: 0.126|x14: 0.000|x15: 0.000|x16: 0.067|x17: 0.000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.27551340026096405]</t>
+          <t>[0.27549761673025275]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.24102492445494508]</t>
+          <t>[0.24100040365705766]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.069|x3: 0.327|x4: 0.068|x5: 0.000|x6: 0.071|x7: 0.000|x8: 0.069|x9: 0.052|x10: 0.189|x11: 0.000|x12: 0.258|x13: 0.065|x14: 0.000|x15: 0.096|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.069|x3: 0.327|x4: 0.068|x5: 0.000|x6: 0.070|x7: 0.000|x8: 0.069|x9: 0.051|x10: 0.189|x11: 0.000|x12: 0.258|x13: 0.065|x14: 0.000|x15: 0.096|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.2377712794134155]</t>
+          <t>[0.23772048628475057]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.2645706543182746]</t>
+          <t>[0.2646069775586342]</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.36606910625456407]</t>
+          <t>[0.3660696068261016]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.2743226676261592]</t>
+          <t>[0.27432722063618586]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.2743124014584949]</t>
+          <t>[0.2743083611761559]</t>
         </is>
       </c>
       <c r="H37" t="b">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.20336246490478516]</t>
+          <t>[0.20343275368213654]</t>
         </is>
       </c>
       <c r="H39" t="b">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.024|x11: 0.000|x12: 0.029|x13: 0.000|x14: 0.042|x15: 0.040|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.024|x11: 0.000|x12: 0.028|x13: 0.000|x14: 0.042|x15: 0.040|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.22718805074444764]</t>
+          <t>[0.2272067078463104]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.3254968668529422]</t>
+          <t>[0.325547293854354]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.043|x3: 0.423|x4: 0.063|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.182|x11: 0.064|x12: 0.141|x13: 0.057|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.043|x3: 0.424|x4: 0.063|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.182|x11: 0.064|x12: 0.141|x13: 0.057|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.25101533424028766]</t>
+          <t>[0.2510275632347389]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.490|x4: 0.166|x5: 0.074|x6: 0.000|x7: 0.092|x8: 0.112|x9: 0.085|x10: 0.267|x11: 0.133|x12: 0.302|x13: 0.173|x14: 0.060|x15: 0.000|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.502|x4: 0.170|x5: 0.076|x6: 0.000|x7: 0.095|x8: 0.115|x9: 0.087|x10: 0.274|x11: 0.137|x12: 0.310|x13: 0.178|x14: 0.061|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.49]</t>
+          <t>[0.00, 0.12, 0.50]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.2344630692136934]</t>
+          <t>[0.23438026705516513]</t>
         </is>
       </c>
       <c r="H47" t="b">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.2182365735925858]</t>
+          <t>[0.21824755075006244]</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.2733305250480047]</t>
+          <t>[0.2733537663126886]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.22501861633827]</t>
+          <t>[0.22501454846694416]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.2588487903512812]</t>
+          <t>[0.25883186380552825]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.200|x2: 0.000|x3: 0.458|x4: 0.316|x5: 0.000|x6: 0.000|x7: 0.146|x8: 0.000|x9: 0.176|x10: 0.069|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.121|x17: 0.000</t>
+          <t>x1: 0.200|x2: 0.000|x3: 0.458|x4: 0.317|x5: 0.000|x6: 0.000|x7: 0.146|x8: 0.000|x9: 0.176|x10: 0.068|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.121|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.21608430109889581]</t>
+          <t>[0.2161214715798938]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.34443737396251406]</t>
+          <t>[0.34443586124394737]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.23391496919539512]</t>
+          <t>[0.23387490622023]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.147|x2: 0.063|x3: 0.270|x4: 0.183|x5: 0.065|x6: 0.127|x7: 0.150|x8: 0.328|x9: 0.289|x10: 0.216|x11: 0.064|x12: 0.000|x13: 0.155|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
+          <t>x1: 0.147|x2: 0.063|x3: 0.270|x4: 0.183|x5: 0.065|x6: 0.127|x7: 0.150|x8: 0.328|x9: 0.289|x10: 0.217|x11: 0.064|x12: 0.000|x13: 0.155|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.2048896985487708]</t>
+          <t>[0.2048870671081284]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.20646278258378084]</t>
+          <t>[0.20647644883171085]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.111|x3: 0.185|x4: 0.000|x5: 0.277|x6: 0.000|x7: 0.000|x8: 0.046|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.118|x13: 0.263|x14: 0.157|x15: 0.225|x16: 0.369|x17: 0.000</t>
+          <t>x1: 0.112|x2: 0.112|x3: 0.185|x4: 0.000|x5: 0.277|x6: 0.000|x7: 0.000|x8: 0.046|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.118|x13: 0.263|x14: 0.157|x15: 0.225|x16: 0.369|x17: 0.000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.21001778188981643]</t>
+          <t>[0.21004184496470174]</t>
         </is>
       </c>
       <c r="H62" t="b">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.123|x2: 0.000|x3: 0.298|x4: 0.069|x5: 0.000|x6: 0.000|x7: 0.140|x8: 0.098|x9: 0.167|x10: 0.161|x11: 0.128|x12: 0.135|x13: 0.000|x14: 0.162|x15: 0.081|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.123|x2: 0.000|x3: 0.298|x4: 0.069|x5: 0.000|x6: 0.000|x7: 0.140|x8: 0.098|x9: 0.167|x10: 0.161|x11: 0.128|x12: 0.135|x13: 0.000|x14: 0.162|x15: 0.082|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.21030817497622317]</t>
+          <t>[0.21029787035438582]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.20957779135519466]</t>
+          <t>[0.20960367589880405]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.147|x2: 0.057|x3: 0.295|x4: 0.000|x5: 0.061|x6: 0.000|x7: 0.000|x8: 0.084|x9: 0.068|x10: 0.161|x11: 0.067|x12: 0.056|x13: 0.000|x14: 0.082|x15: 0.055|x16: 0.080|x17: 0.000</t>
+          <t>x1: 0.147|x2: 0.057|x3: 0.295|x4: 0.000|x5: 0.061|x6: 0.000|x7: 0.000|x8: 0.085|x9: 0.068|x10: 0.161|x11: 0.067|x12: 0.056|x13: 0.000|x14: 0.082|x15: 0.055|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.21027915511111311]</t>
+          <t>[0.21027687167168457]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.259|x2: 0.000|x3: 0.446|x4: 0.195|x5: 0.000|x6: 0.000|x7: 0.196|x8: 0.180|x9: 0.234|x10: 0.287|x11: 0.065|x12: 0.000|x13: 0.126|x14: 0.000|x15: 0.065|x16: 0.066|x17: 0.000</t>
+          <t>x1: 0.260|x2: 0.000|x3: 0.446|x4: 0.195|x5: 0.000|x6: 0.000|x7: 0.196|x8: 0.180|x9: 0.234|x10: 0.287|x11: 0.065|x12: 0.000|x13: 0.126|x14: 0.000|x15: 0.065|x16: 0.066|x17: 0.000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.20621688208270716]</t>
+          <t>[0.2062370504838388]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.21457315981388092, 0.20588716939221802]</t>
+          <t>[0.21454480290412903, 0.20582851802658766]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.087|x7: 0.116|x8: 0.140|x9: 0.179|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.138|x14: 0.200|x15: 0.139|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.087|x7: 0.116|x8: 0.140|x9: 0.178|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.138|x14: 0.200|x15: 0.139|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.069|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.222|x9: 0.000|x10: 0.051|x11: 0.000|x12: 0.063|x13: 0.086|x14: 0.000|x15: 0.050|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.069|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.222|x9: 0.000|x10: 0.052|x11: 0.000|x12: 0.063|x13: 0.086|x14: 0.000|x15: 0.050|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.079|x3: 0.336|x4: 0.135|x5: 0.131|x6: 0.069|x7: 0.116|x8: 0.144|x9: 0.164|x10: 0.000|x11: 0.185|x12: 0.218|x13: 0.184|x14: 0.057|x15: 0.103|x16: 0.126|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.079|x3: 0.336|x4: 0.135|x5: 0.131|x6: 0.070|x7: 0.116|x8: 0.144|x9: 0.164|x10: 0.000|x11: 0.185|x12: 0.218|x13: 0.184|x14: 0.057|x15: 0.103|x16: 0.126|x17: 0.000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.335|x4: 0.102|x5: 0.087|x6: 0.210|x7: 0.125|x8: 0.086|x9: 0.115|x10: 0.000|x11: 0.121|x12: 0.224|x13: 0.050|x14: 0.103|x15: 0.128|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.335|x4: 0.102|x5: 0.087|x6: 0.210|x7: 0.125|x8: 0.086|x9: 0.115|x10: 0.000|x11: 0.121|x12: 0.224|x13: 0.051|x14: 0.103|x15: 0.128|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.130|x2: 0.078|x3: 0.409|x4: 0.147|x5: 0.142|x6: 0.081|x7: 0.159|x8: 0.264|x9: 0.200|x10: 0.056|x11: 0.000|x12: 0.129|x13: 0.249|x14: 0.096|x15: 0.103|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.130|x2: 0.078|x3: 0.409|x4: 0.147|x5: 0.142|x6: 0.081|x7: 0.159|x8: 0.264|x9: 0.200|x10: 0.056|x11: 0.000|x12: 0.130|x13: 0.249|x14: 0.096|x15: 0.103|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.20072485572395818]</t>
+          <t>[0.20075348770341242]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.251|x2: 0.000|x3: 0.253|x4: 0.113|x5: 0.000|x6: 0.084|x7: 0.000|x8: 0.188|x9: 0.000|x10: 0.155|x11: 0.058|x12: 0.135|x13: 0.075|x14: 0.062|x15: 0.081|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.251|x2: 0.000|x3: 0.253|x4: 0.113|x5: 0.000|x6: 0.084|x7: 0.000|x8: 0.187|x9: 0.000|x10: 0.155|x11: 0.058|x12: 0.135|x13: 0.075|x14: 0.062|x15: 0.081|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.24594989982332371]</t>
+          <t>[0.24595306906858158]</t>
         </is>
       </c>
       <c r="H91" t="b">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.24104129942830896]</t>
+          <t>[0.24104732885848495]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.2428706020785542]</t>
+          <t>[0.24286139645031246]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.309|x4: 0.091|x5: 0.000|x6: 0.059|x7: 0.133|x8: 0.165|x9: 0.207|x10: 0.000|x11: 0.111|x12: 0.086|x13: 0.114|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.309|x4: 0.090|x5: 0.000|x6: 0.059|x7: 0.133|x8: 0.165|x9: 0.207|x10: 0.000|x11: 0.111|x12: 0.086|x13: 0.114|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.000|x3: 0.513|x4: 0.103|x5: 0.170|x6: 0.093|x7: 0.083|x8: 0.089|x9: 0.056|x10: 0.000|x11: 0.114|x12: 0.141|x13: 0.091|x14: 0.077|x15: 0.085|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.000|x3: 0.513|x4: 0.104|x5: 0.170|x6: 0.093|x7: 0.083|x8: 0.089|x9: 0.056|x10: 0.000|x11: 0.114|x12: 0.141|x13: 0.091|x14: 0.077|x15: 0.085|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.2482497537709049]</t>
+          <t>[0.24826342413647576]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.2194102022745196]</t>
+          <t>[0.21948169009078403]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.203030449869478]</t>
+          <t>[0.20302944804728573]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.22738322409694398, 0.22333060410911837]</t>
+          <t>[0.22737469210568018, 0.22331890032348092]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.070|x3: 0.182|x4: 0.000|x5: 0.049|x6: 0.000|x7: 0.000|x8: 0.156|x9: 0.116|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.086|x14: 0.137|x15: 0.071|x16: 0.057|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.069|x3: 0.182|x4: 0.000|x5: 0.049|x6: 0.000|x7: 0.000|x8: 0.156|x9: 0.116|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.086|x14: 0.137|x15: 0.071|x16: 0.057|x17: 0.000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.289|x4: 0.000|x5: 0.101|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.091|x14: 0.170|x15: 0.149|x16: 0.110|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.289|x4: 0.000|x5: 0.101|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.091|x14: 0.170|x15: 0.149|x16: 0.109|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.000|x3: 0.244|x4: 0.077|x5: 0.094|x6: 0.000|x7: 0.081|x8: 0.146|x9: 0.080|x10: 0.105|x11: 0.078|x12: 0.165|x13: 0.085|x14: 0.267|x15: 0.159|x16: 0.055|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.000|x3: 0.244|x4: 0.077|x5: 0.094|x6: 0.000|x7: 0.081|x8: 0.146|x9: 0.080|x10: 0.105|x11: 0.078|x12: 0.165|x13: 0.085|x14: 0.267|x15: 0.159|x16: 0.055|x17: 0.000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.283|x4: 0.058|x5: 0.000|x6: 0.049|x7: 0.089|x8: 0.000|x9: 0.054|x10: 0.109|x11: 0.062|x12: 0.080|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.283|x4: 0.058|x5: 0.000|x6: 0.049|x7: 0.089|x8: 0.000|x9: 0.053|x10: 0.109|x11: 0.062|x12: 0.080|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.32426586406718044]</t>
+          <t>[0.3242340084377434]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.401|x4: 0.059|x5: 0.119|x6: 0.065|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.083|x12: 0.111|x13: 0.000|x14: 0.105|x15: 0.074|x16: 0.105|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.401|x4: 0.059|x5: 0.118|x6: 0.065|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.083|x12: 0.111|x13: 0.000|x14: 0.105|x15: 0.074|x16: 0.105|x17: 0.000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.2147810224296559]</t>
+          <t>[0.2147746683749628]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.059|x3: 0.106|x4: 0.071|x5: 0.000|x6: 0.061|x7: 0.090|x8: 0.077|x9: 0.121|x10: 0.000|x11: 0.000|x12: 0.103|x13: 0.288|x14: 0.112|x15: 0.118|x16: 0.090|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.059|x3: 0.106|x4: 0.071|x5: 0.000|x6: 0.061|x7: 0.089|x8: 0.077|x9: 0.121|x10: 0.000|x11: 0.000|x12: 0.103|x13: 0.288|x14: 0.112|x15: 0.118|x16: 0.090|x17: 0.000</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.313|x4: 0.087|x5: 0.000|x6: 0.109|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.206|x11: 0.000|x12: 0.000|x13: 0.169|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.313|x4: 0.087|x5: 0.000|x6: 0.109|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.206|x11: 0.000|x12: 0.000|x13: 0.170|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.29242404196494204]</t>
+          <t>[0.29242010260667384]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.089|x2: 0.050|x3: 0.356|x4: 0.051|x5: 0.000|x6: 0.046|x7: 0.050|x8: 0.076|x9: 0.141|x10: 0.113|x11: 0.000|x12: 0.249|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.089|x2: 0.050|x3: 0.356|x4: 0.051|x5: 0.000|x6: 0.046|x7: 0.050|x8: 0.076|x9: 0.140|x10: 0.113|x11: 0.000|x12: 0.249|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.235|x4: 0.000|x5: 0.000|x6: 0.052|x7: 0.099|x8: 0.205|x9: 0.201|x10: 0.253|x11: 0.000|x12: 0.000|x13: 0.203|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.236|x4: 0.000|x5: 0.000|x6: 0.052|x7: 0.099|x8: 0.205|x9: 0.201|x10: 0.253|x11: 0.000|x12: 0.000|x13: 0.203|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.542|x4: 0.158|x5: 0.104|x6: 0.126|x7: 0.097|x8: 0.068|x9: 0.064|x10: 0.170|x11: 0.062|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.542|x4: 0.158|x5: 0.104|x6: 0.126|x7: 0.097|x8: 0.068|x9: 0.064|x10: 0.169|x11: 0.062|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.3313723190263027]</t>
+          <t>[0.3313219596917057]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.142|x3: 0.537|x4: 0.246|x5: 0.082|x6: 0.070|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.146|x11: 0.000|x12: 0.186|x13: 0.163|x14: 0.132|x15: 0.144|x16: 0.064|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.142|x3: 0.537|x4: 0.246|x5: 0.082|x6: 0.071|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.146|x11: 0.000|x12: 0.186|x13: 0.163|x14: 0.132|x15: 0.144|x16: 0.063|x17: 0.000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.2550283635799183]</t>
+          <t>[0.2550486702403161]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.26860823498174424]</t>
+          <t>[0.26861292692093125]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.22844342304299234]</t>
+          <t>[0.22844413603312097]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.2281608094495343]</t>
+          <t>[0.2281510753176508]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[0.25740864397363844]</t>
+          <t>[0.257464227987293]</t>
         </is>
       </c>
       <c r="H151" t="b">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.172|x2: 0.000|x3: 0.395|x4: 0.000|x5: 0.000|x6: 0.136|x7: 0.156|x8: 0.000|x9: 0.125|x10: 0.145|x11: 0.324|x12: 0.184|x13: 0.092|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.172|x2: 0.000|x3: 0.395|x4: 0.000|x5: 0.000|x6: 0.136|x7: 0.156|x8: 0.000|x9: 0.125|x10: 0.144|x11: 0.324|x12: 0.184|x13: 0.092|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.000|x3: 0.115|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.143|x8: 0.000|x9: 0.236|x10: 0.000|x11: 0.000|x12: 0.061|x13: 0.042|x14: 0.000|x15: 0.000|x16: 0.038|x17: 0.000</t>
+          <t>x1: 0.079|x2: 0.000|x3: 0.115|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.143|x8: 0.000|x9: 0.236|x10: 0.000|x11: 0.000|x12: 0.062|x13: 0.042|x14: 0.000|x15: 0.000|x16: 0.038|x17: 0.000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.106|x2: 0.000|x3: 0.059|x4: 0.000|x5: 0.051|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.216|x13: 0.096|x14: 0.187|x15: 0.214|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.106|x2: 0.000|x3: 0.059|x4: 0.000|x5: 0.051|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.054|x12: 0.216|x13: 0.096|x14: 0.187|x15: 0.214|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.512|x4: 0.191|x5: 0.068|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.068|x11: 0.000|x12: 0.109|x13: 0.132|x14: 0.066|x15: 0.057|x16: 0.158|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.512|x4: 0.191|x5: 0.068|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.068|x11: 0.000|x12: 0.109|x13: 0.132|x14: 0.066|x15: 0.058|x16: 0.158|x17: 0.000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.26628403393407357]</t>
+          <t>[0.2662759915655752]</t>
         </is>
       </c>
       <c r="H164" t="b">
